--- a/data/bind_severity.xlsx
+++ b/data/bind_severity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Doutorado\Publicações\Papers\paper_tpp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43CF80D-C885-4461-99A5-87991E22823D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E8DC20-01EC-4A1B-BE38-EE93D0FF6D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -319,16 +319,16 @@
     <t>Soybean rust</t>
   </si>
   <si>
-    <t>Rater 1</t>
-  </si>
-  <si>
-    <t>Rater 2</t>
-  </si>
-  <si>
-    <t>Rater 3</t>
-  </si>
-  <si>
     <t>Joint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User 1 </t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 3</t>
   </si>
 </sst>
 </file>
@@ -671,7 +671,7 @@
   <dimension ref="A1:I250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F1" sqref="F1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -693,16 +693,16 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" t="s">
         <v>99</v>
-      </c>
-      <c r="G1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
